--- a/metrics/runtimes.xlsx
+++ b/metrics/runtimes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ggurgul/Sources/Personal/iga-adi-giraph/metrics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{086FF573-851E-264A-BB65-7F87A52E0D1B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E8EB91-2D5B-1943-9E3A-680B9013CF42}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" activeTab="1" xr2:uid="{C6E70179-B0AB-4749-BC08-2716CB143424}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{C6E70179-B0AB-4749-BC08-2716CB143424}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="109" r:id="rId3"/>
+    <pivotCache cacheId="5" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -2677,7 +2677,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DCAE2B26-DCC3-274A-8039-A0C7283D970B}" name="PivotTable2" cacheId="109" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DCAE2B26-DCC3-274A-8039-A0C7283D970B}" name="PivotTable2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:G24" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField axis="axisRow" showAll="0">
@@ -2882,8 +2882,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3CF64824-411A-1A49-A947-685472FCF911}" name="Table1" displayName="Table1" ref="A1:M20" totalsRowShown="0">
-  <autoFilter ref="A1:M20" xr:uid="{DC5751D0-4162-4142-B986-C24A7A47CBF9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3CF64824-411A-1A49-A947-685472FCF911}" name="Table1" displayName="Table1" ref="A1:M29" totalsRowShown="0">
+  <autoFilter ref="A1:M29" xr:uid="{DC5751D0-4162-4142-B986-C24A7A47CBF9}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{D6095D2C-727B-1F45-9766-8FD2EF6988CB}" name="problemSize"/>
     <tableColumn id="2" xr3:uid="{5A411866-7770-1D4D-A587-6BC153F45653}" name="workers"/>
@@ -3200,10 +3200,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{086CFC0F-0C4E-FD42-88B5-80453516F089}">
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4038,6 +4038,375 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>3072</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>8</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>2.746</v>
+      </c>
+      <c r="F21">
+        <v>8.8680000000000003</v>
+      </c>
+      <c r="G21">
+        <v>78.760000000000005</v>
+      </c>
+      <c r="H21">
+        <v>100.94</v>
+      </c>
+      <c r="I21">
+        <v>70.314999999999998</v>
+      </c>
+      <c r="J21">
+        <v>6.157</v>
+      </c>
+      <c r="K21">
+        <v>3.2010000000000001</v>
+      </c>
+      <c r="L21">
+        <v>0.63300000000000001</v>
+      </c>
+      <c r="M21">
+        <v>6.2E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>3072</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>8</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22">
+        <v>2.57</v>
+      </c>
+      <c r="F22">
+        <v>8.8819999999999997</v>
+      </c>
+      <c r="G22">
+        <v>94.784000000000006</v>
+      </c>
+      <c r="H22">
+        <v>193.90600000000001</v>
+      </c>
+      <c r="I22">
+        <v>87.135999999999996</v>
+      </c>
+      <c r="J22">
+        <v>5.3360000000000003</v>
+      </c>
+      <c r="K22">
+        <v>3.0539999999999998</v>
+      </c>
+      <c r="L22">
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="M22">
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>3072</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>8</v>
+      </c>
+      <c r="D23">
+        <v>4</v>
+      </c>
+      <c r="E23">
+        <v>3.6379999999999999</v>
+      </c>
+      <c r="F23">
+        <v>8.8510000000000009</v>
+      </c>
+      <c r="G23">
+        <v>95.742000000000004</v>
+      </c>
+      <c r="H23">
+        <v>291.97199999999998</v>
+      </c>
+      <c r="I23">
+        <v>88.647000000000006</v>
+      </c>
+      <c r="J23">
+        <v>4.9909999999999997</v>
+      </c>
+      <c r="K23">
+        <v>2.8119999999999998</v>
+      </c>
+      <c r="L23">
+        <v>0.67600000000000005</v>
+      </c>
+      <c r="M23">
+        <v>4.1000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>3072</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>8</v>
+      </c>
+      <c r="D24">
+        <v>5</v>
+      </c>
+      <c r="E24">
+        <v>2.6709999999999998</v>
+      </c>
+      <c r="F24">
+        <v>8.7810000000000006</v>
+      </c>
+      <c r="G24">
+        <v>93.013999999999996</v>
+      </c>
+      <c r="H24">
+        <v>379.61</v>
+      </c>
+      <c r="I24">
+        <v>85.153000000000006</v>
+      </c>
+      <c r="J24">
+        <v>5.44</v>
+      </c>
+      <c r="K24">
+        <v>3.302</v>
+      </c>
+      <c r="L24">
+        <v>0.69099999999999995</v>
+      </c>
+      <c r="M24">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>3072</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>8</v>
+      </c>
+      <c r="D25">
+        <v>6</v>
+      </c>
+      <c r="E25">
+        <v>2.427</v>
+      </c>
+      <c r="F25">
+        <v>8.8580000000000005</v>
+      </c>
+      <c r="G25">
+        <v>95.316000000000003</v>
+      </c>
+      <c r="H25">
+        <v>477.51100000000002</v>
+      </c>
+      <c r="I25">
+        <v>87.927000000000007</v>
+      </c>
+      <c r="J25">
+        <v>5.3609999999999998</v>
+      </c>
+      <c r="K25">
+        <v>2.8439999999999999</v>
+      </c>
+      <c r="L25">
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="M25">
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>3072</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <v>8</v>
+      </c>
+      <c r="D26">
+        <v>7</v>
+      </c>
+      <c r="E26">
+        <v>2.6709999999999998</v>
+      </c>
+      <c r="F26">
+        <v>8.8460000000000001</v>
+      </c>
+      <c r="G26">
+        <v>92.850999999999999</v>
+      </c>
+      <c r="H26">
+        <v>571.42999999999995</v>
+      </c>
+      <c r="I26">
+        <v>85.86</v>
+      </c>
+      <c r="J26">
+        <v>4.875</v>
+      </c>
+      <c r="K26">
+        <v>2.7810000000000001</v>
+      </c>
+      <c r="L26">
+        <v>0.73299999999999998</v>
+      </c>
+      <c r="M26">
+        <v>4.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>3072</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>8</v>
+      </c>
+      <c r="D27">
+        <v>8</v>
+      </c>
+      <c r="E27">
+        <v>2.5310000000000001</v>
+      </c>
+      <c r="F27">
+        <v>8.7729999999999997</v>
+      </c>
+      <c r="G27">
+        <v>93.263999999999996</v>
+      </c>
+      <c r="H27">
+        <v>655.96199999999999</v>
+      </c>
+      <c r="I27">
+        <v>86.998999999999995</v>
+      </c>
+      <c r="J27">
+        <v>4.3360000000000003</v>
+      </c>
+      <c r="K27">
+        <v>2.419</v>
+      </c>
+      <c r="L27">
+        <v>0.66100000000000003</v>
+      </c>
+      <c r="M27">
+        <v>4.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>3072</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>8</v>
+      </c>
+      <c r="D28">
+        <v>9</v>
+      </c>
+      <c r="E28">
+        <v>3.415</v>
+      </c>
+      <c r="F28">
+        <v>8.7539999999999996</v>
+      </c>
+      <c r="G28">
+        <v>91.543999999999997</v>
+      </c>
+      <c r="H28">
+        <v>757.16</v>
+      </c>
+      <c r="I28">
+        <v>85.293000000000006</v>
+      </c>
+      <c r="J28">
+        <v>4.3250000000000002</v>
+      </c>
+      <c r="K28">
+        <v>2.2389999999999999</v>
+      </c>
+      <c r="L28">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="M28">
+        <v>4.1000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>3072</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>8</v>
+      </c>
+      <c r="D29">
+        <v>10</v>
+      </c>
+      <c r="E29">
+        <v>2.4489999999999998</v>
+      </c>
+      <c r="F29">
+        <v>8.782</v>
+      </c>
+      <c r="G29">
+        <v>93.289000000000001</v>
+      </c>
+      <c r="H29">
+        <v>847.00800000000004</v>
+      </c>
+      <c r="I29">
+        <v>86.861999999999995</v>
+      </c>
+      <c r="J29">
+        <v>4.5650000000000004</v>
+      </c>
+      <c r="K29">
+        <v>2.4350000000000001</v>
+      </c>
+      <c r="L29">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="M29">
+        <v>0.05</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -4050,7 +4419,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6AF2E48-A2A7-E043-A628-2D0D36E09D3D}">
   <dimension ref="A3:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
